--- a/DATA/Advertiser.xlsx
+++ b/DATA/Advertiser.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\01_강의\학부_4년_전공_경영데이터분석\02.강의노트\WEEK03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\01_강의\학부_4년_전공_경영데이터분석\GitHub\BizDataAnalysis\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C0B6920-C033-4882-8967-4FF5C2B225FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29E919A-D371-49A4-BACE-4C4893118E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2110" yWindow="2190" windowWidth="29770" windowHeight="17750" xr2:uid="{753F37A3-263E-4D5A-B371-E42045FFA95E}"/>
   </bookViews>
@@ -200,10 +200,6 @@
     <t>길림양행</t>
   </si>
   <si>
-    <t>광고주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,6 +213,10 @@
   </si>
   <si>
     <t>Magazine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advertiser</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -268,11 +268,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -328,7 +325,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{86EAB438-4EED-4540-AD4A-1B13D5849683}" name="Table002__Page_1" displayName="Table002__Page_1" ref="A1:E51" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:E51" xr:uid="{86EAB438-4EED-4540-AD4A-1B13D5849683}"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{34D63EF6-75BF-40F8-BDA6-B9C165022A6E}" uniqueName="2" name="광고주" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{34D63EF6-75BF-40F8-BDA6-B9C165022A6E}" uniqueName="2" name="Advertiser" queryTableFieldId="2" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{731EBBC0-D164-4855-97E1-6344096B110F}" uniqueName="3" name="TV" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{189CEBA6-381F-48E2-9B10-C1E1BF4FC859}" uniqueName="4" name="Radio" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{A2AA923E-7A02-4EB8-A6BF-74C8028343BC}" uniqueName="5" name="Newspaper" queryTableFieldId="5"/>
@@ -658,7 +655,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19" x14ac:dyDescent="0.6"/>
@@ -671,24 +668,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -705,7 +702,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
@@ -722,7 +719,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
@@ -739,7 +736,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
@@ -756,7 +753,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -773,7 +770,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
@@ -790,7 +787,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
@@ -807,7 +804,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
@@ -824,7 +821,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
@@ -841,7 +838,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11">
@@ -858,7 +855,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -875,7 +872,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
@@ -892,7 +889,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
@@ -909,7 +906,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15">
@@ -926,7 +923,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
@@ -943,7 +940,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
@@ -960,7 +957,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
@@ -977,7 +974,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19">
@@ -994,7 +991,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20">
@@ -1011,7 +1008,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21">
@@ -1028,7 +1025,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22">
@@ -1045,7 +1042,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23">
@@ -1062,7 +1059,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24">
@@ -1079,7 +1076,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25">
@@ -1096,7 +1093,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26">
@@ -1113,7 +1110,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27">
@@ -1130,7 +1127,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28">
@@ -1147,7 +1144,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29">
@@ -1164,7 +1161,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -1181,7 +1178,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31">
@@ -1198,7 +1195,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32">
@@ -1215,7 +1212,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>36</v>
       </c>
       <c r="B33">
@@ -1232,7 +1229,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34">
@@ -1249,7 +1246,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>39</v>
       </c>
       <c r="B35">
@@ -1266,7 +1263,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>15</v>
       </c>
       <c r="B36">
@@ -1283,7 +1280,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>40</v>
       </c>
       <c r="B37">
@@ -1300,7 +1297,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>41</v>
       </c>
       <c r="B38">
@@ -1317,7 +1314,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39">
@@ -1334,7 +1331,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="B40">
@@ -1351,7 +1348,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>44</v>
       </c>
       <c r="B41">
@@ -1368,7 +1365,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>45</v>
       </c>
       <c r="B42">
@@ -1385,7 +1382,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>6</v>
       </c>
       <c r="B43">
@@ -1402,7 +1399,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>34</v>
       </c>
       <c r="B44">
@@ -1419,7 +1416,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45">
@@ -1436,7 +1433,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>24</v>
       </c>
       <c r="B46">
@@ -1453,7 +1450,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47">
@@ -1470,7 +1467,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>42</v>
       </c>
       <c r="B48">
@@ -1487,7 +1484,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>46</v>
       </c>
       <c r="B49">
@@ -1504,7 +1501,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50">
@@ -1521,7 +1518,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>22</v>
       </c>
       <c r="B51">
